--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_November_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_November_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -61,19 +61,28 @@
   <si>
     <t>Signals and  sub-process.</t>
   </si>
+  <si>
+    <t>Java: Constructor,Strings.</t>
+  </si>
+  <si>
+    <t>Java: File handling, Static with examples.</t>
+  </si>
+  <si>
+    <t>8hrs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,29 +108,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,26 +129,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,13 +152,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -189,9 +160,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,16 +191,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,13 +208,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,7 +222,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,7 +272,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,19 +374,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,151 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,8 +604,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,20 +651,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,165 +688,161 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1187,7 +1189,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1294,18 +1296,38 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13">
+        <v>44504</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="7">
+        <v>6</v>
+      </c>
+      <c r="C9" s="13">
+        <v>44505</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_November_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_November_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -70,6 +70,12 @@
   <si>
     <t>8hrs</t>
   </si>
+  <si>
+    <t>Spring Framework Architecture.</t>
+  </si>
+  <si>
+    <t>9hrs</t>
+  </si>
 </sst>
 </file>
 
@@ -77,10 +83,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -107,8 +113,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,16 +144,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,6 +184,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -172,14 +202,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,36 +222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,9 +236,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,7 +284,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,13 +386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,19 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,7 +422,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,103 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,9 +609,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,21 +682,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -690,159 +698,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -866,7 +872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1189,7 +1195,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1330,11 +1336,21 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="B10" s="7">
+        <v>7</v>
+      </c>
+      <c r="C10" s="13">
+        <v>44508</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_November_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_November_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -76,17 +76,26 @@
   <si>
     <t>9hrs</t>
   </si>
+  <si>
+    <t>Spring:Basic Program HelloWorld.</t>
+  </si>
+  <si>
+    <t>Spring:Create a 3 Beans and apply DI.</t>
+  </si>
+  <si>
+    <t>Spring:Annotation Based Spring Project.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -121,14 +130,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,17 +152,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,13 +184,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -202,6 +195,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,7 +223,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,22 +258,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,43 +293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +311,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,25 +341,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,13 +377,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,37 +431,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,19 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,21 +623,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,6 +675,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -695,160 +713,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -872,7 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1195,7 +1204,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1353,35 +1362,71 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="7">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13">
+        <v>44509</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="7">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13">
+        <v>44510</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="7">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13">
+        <v>44511</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="7">
+        <v>11</v>
+      </c>
+      <c r="C14" s="13">
+        <v>44512</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="7"/>
+      <c r="B15" s="7">
+        <v>12</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_November_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_November_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -85,17 +85,35 @@
   <si>
     <t>Spring:Annotation Based Spring Project.</t>
   </si>
+  <si>
+    <t>SpringMVC: Architecture.</t>
+  </si>
+  <si>
+    <t>SpringMVC:Basic Program.</t>
+  </si>
+  <si>
+    <t>SpringMVC: Xml based.</t>
+  </si>
+  <si>
+    <t>SpringMVC:Annotation Based.</t>
+  </si>
+  <si>
+    <t>SpringBoot:Basic Program and Hibernate basic.</t>
+  </si>
+  <si>
+    <t>UseCase:Timesheet Webpage.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -130,9 +148,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,13 +164,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,8 +177,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,8 +254,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,17 +277,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,13 +305,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +323,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,13 +365,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,31 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,13 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,43 +461,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,37 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,148 +734,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -881,7 +899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1203,8 +1221,8 @@
   <sheetPr/>
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1419,77 +1437,141 @@
       <c r="C14" s="13">
         <v>44512</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="13">
+        <v>44515</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="7">
+        <v>13</v>
+      </c>
+      <c r="C16" s="13">
+        <v>44516</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="7">
+        <v>14</v>
+      </c>
+      <c r="C17" s="13">
+        <v>44517</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="7">
+        <v>15</v>
+      </c>
+      <c r="C18" s="13">
+        <v>44518</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="7">
+        <v>16</v>
+      </c>
+      <c r="C19" s="13">
+        <v>44519</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="7"/>
+      <c r="B20" s="7">
+        <v>17</v>
+      </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="7"/>
+      <c r="B21" s="7">
+        <v>18</v>
+      </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="7"/>
+      <c r="B22" s="7">
+        <v>19</v>
+      </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="7"/>
+      <c r="B23" s="7">
+        <v>20</v>
+      </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="7"/>
+      <c r="B24" s="7">
+        <v>21</v>
+      </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_November_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_November_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -103,14 +103,29 @@
   <si>
     <t>UseCase:Timesheet Webpage.</t>
   </si>
+  <si>
+    <t>Spring Profiling.</t>
+  </si>
+  <si>
+    <t>Annotations in SpringBoot.</t>
+  </si>
+  <si>
+    <t>Scope Of Bean and Bean LifeCycle.</t>
+  </si>
+  <si>
+    <t>Cross Cut Concern,AspectJ,PointCut.</t>
+  </si>
+  <si>
+    <t>Spring AOP:Program.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
@@ -140,16 +155,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,8 +185,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,14 +196,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,9 +250,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,17 +278,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,7 +320,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,31 +344,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,19 +368,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,31 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,25 +434,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,31 +470,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,24 +699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -731,151 +728,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1221,8 +1236,8 @@
   <sheetPr/>
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1536,58 +1551,110 @@
       <c r="B20" s="7">
         <v>17</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
+      <c r="C20" s="13">
+        <v>44522</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="7">
         <v>18</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
+      <c r="C21" s="13">
+        <v>44523</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="7">
         <v>19</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
+      <c r="C22" s="13">
+        <v>44524</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="7">
         <v>20</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="C23" s="13">
+        <v>44525</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
+      <c r="C24" s="13">
+        <v>44526</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="B25" s="7">
+        <v>22</v>
+      </c>
+      <c r="C25" s="13">
+        <v>44529</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="B26" s="7">
+        <v>23</v>
+      </c>
+      <c r="C26" s="13">
+        <v>44530</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
     </row>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_November_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_November_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>Spring AOP:Program.</t>
+  </si>
+  <si>
+    <t>SpringBoot:Annotations</t>
+  </si>
+  <si>
+    <t>5hrs</t>
+  </si>
+  <si>
+    <t>Spring:CRUD operations.</t>
+  </si>
+  <si>
+    <t>4hrs</t>
   </si>
 </sst>
 </file>
@@ -125,10 +137,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -155,17 +167,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,17 +190,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,29 +259,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -285,15 +273,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,79 +332,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,7 +356,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,19 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,19 +434,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,19 +476,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,11 +663,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,21 +705,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,33 +742,35 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,130 +779,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -914,7 +926,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1237,7 +1249,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1642,8 +1654,12 @@
       <c r="D25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
+      <c r="E25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="7">
@@ -1655,8 +1671,12 @@
       <c r="D26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
+      <c r="E26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="7"/>
